--- a/data/trans_orig/P2C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{835972E7-F15F-4A2A-9AAA-5B3929148E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8CC0B2-4177-4638-B8A0-B1893EC98611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{594F5629-6B27-4E9F-BC30-DEBC8BA3AC54}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7B42981A-187B-47C9-AE4D-B93F1A4C076C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="646">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>34,73%</t>
@@ -101,7 +101,7 @@
     <t>43,28%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>65,27%</t>
@@ -587,7 +587,58 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
   </si>
   <si>
     <t>44,92%</t>
@@ -698,243 +749,237 @@
     <t>55,94%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
     <t>61,86%</t>
   </si>
   <si>
@@ -1373,9 +1418,6 @@
     <t>32,55%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
     <t>41,78%</t>
   </si>
   <si>
@@ -1397,9 +1439,6 @@
     <t>67,45%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
     <t>51,13%</t>
   </si>
   <si>
@@ -1466,490 +1505,478 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B13F98-98F5-4130-8417-418EF3C91CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59DC0ED-AD5B-4FAB-8169-565AA53458DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3773,7 +3800,7 @@
         <v>2286</v>
       </c>
       <c r="D29" s="7">
-        <v>2321111</v>
+        <v>2321110</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -3788,7 +3815,7 @@
         <v>2170</v>
       </c>
       <c r="I29" s="7">
-        <v>2212274</v>
+        <v>2212273</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3803,7 +3830,7 @@
         <v>4456</v>
       </c>
       <c r="N29" s="7">
-        <v>4533383</v>
+        <v>4533384</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -3824,7 +3851,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3839,7 +3866,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3854,7 +3881,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3892,7 +3919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6339E6E2-32C3-4345-A028-3B560A7E892E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF668EE7-DEC6-4950-BCDA-26D218529E6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,43 +4037,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="D4" s="7">
+        <v>133712</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="I4" s="7">
+        <v>160761</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="N4" s="7">
+        <v>294474</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,43 +4088,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="D5" s="7">
+        <v>161026</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I5" s="7">
+        <v>126484</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>264</v>
+      </c>
+      <c r="N5" s="7">
+        <v>287509</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,43 +4139,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4198,13 @@
         <v>227060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -4168,13 +4213,13 @@
         <v>264438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>460</v>
@@ -4183,13 +4228,13 @@
         <v>491497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4249,13 @@
         <v>278467</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>236</v>
@@ -4219,13 +4264,13 @@
         <v>259327</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>492</v>
@@ -4234,13 +4279,13 @@
         <v>537795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4353,13 @@
         <v>145073</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>160</v>
@@ -4323,13 +4368,13 @@
         <v>174149</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>301</v>
@@ -4338,13 +4383,13 @@
         <v>319223</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4404,13 @@
         <v>178973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -4374,13 +4419,13 @@
         <v>166871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>335</v>
@@ -4389,13 +4434,13 @@
         <v>345843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,49 +4502,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>298</v>
+        <v>170</v>
       </c>
       <c r="D13" s="7">
-        <v>319895</v>
+        <v>186183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>350</v>
+        <v>204</v>
       </c>
       <c r="I13" s="7">
-        <v>377755</v>
+        <v>216993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
-        <v>648</v>
+        <v>374</v>
       </c>
       <c r="N13" s="7">
-        <v>697650</v>
+        <v>403176</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,49 +4553,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>328</v>
+        <v>174</v>
       </c>
       <c r="D14" s="7">
-        <v>348825</v>
+        <v>187799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="I14" s="7">
-        <v>298441</v>
+        <v>171958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
-        <v>605</v>
+        <v>341</v>
       </c>
       <c r="N14" s="7">
-        <v>647266</v>
+        <v>359757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4574,10 +4619,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4589,10 +4634,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4618,13 +4663,13 @@
         <v>101352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -4633,13 +4678,13 @@
         <v>124245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>214</v>
@@ -4648,13 +4693,13 @@
         <v>225597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4714,13 @@
         <v>111266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4684,13 +4729,13 @@
         <v>95346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>194</v>
@@ -4699,13 +4744,13 @@
         <v>206612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4818,13 @@
         <v>123141</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -4788,13 +4833,13 @@
         <v>143793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>256</v>
@@ -4803,13 +4848,13 @@
         <v>266935</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4869,13 @@
         <v>150840</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -4839,13 +4884,13 @@
         <v>136238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>274</v>
@@ -4854,13 +4899,13 @@
         <v>287077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4973,13 @@
         <v>294599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>313</v>
@@ -4943,13 +4988,13 @@
         <v>336140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>587</v>
@@ -4958,13 +5003,13 @@
         <v>630739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5024,13 @@
         <v>368189</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>323</v>
@@ -4994,13 +5039,13 @@
         <v>357713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>667</v>
@@ -5009,13 +5054,13 @@
         <v>725902</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5128,13 @@
         <v>323465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -5098,13 +5143,13 @@
         <v>415321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>685</v>
@@ -5113,13 +5158,13 @@
         <v>738786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5179,13 @@
         <v>455633</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>374</v>
@@ -5149,13 +5194,13 @@
         <v>408532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>789</v>
@@ -5164,13 +5209,13 @@
         <v>864165</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5283,13 @@
         <v>1534588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>1707</v>
@@ -5253,13 +5298,13 @@
         <v>1835841</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>3151</v>
@@ -5268,13 +5313,13 @@
         <v>3370428</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5334,13 @@
         <v>1892191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>1591</v>
@@ -5304,13 +5349,13 @@
         <v>1722468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>3356</v>
@@ -5319,13 +5364,13 @@
         <v>3614660</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C651A326-36C6-4578-A6E5-981C7C095F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4900889-9B91-4DDF-8A9C-5ED999714FF8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5422,7 +5467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5529,13 +5574,13 @@
         <v>112326</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -5544,13 +5589,13 @@
         <v>119354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>218</v>
@@ -5559,13 +5604,13 @@
         <v>231680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5625,13 @@
         <v>181435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>160</v>
@@ -5595,13 +5640,13 @@
         <v>169349</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>325</v>
@@ -5610,13 +5655,13 @@
         <v>350784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5729,13 @@
         <v>134083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -5699,13 +5744,13 @@
         <v>178044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5714,13 +5759,13 @@
         <v>312127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5780,13 @@
         <v>368492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5750,13 +5795,13 @@
         <v>345040</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>663</v>
@@ -5765,13 +5810,13 @@
         <v>713532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5884,13 @@
         <v>84254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -5854,13 +5899,13 @@
         <v>102034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -5869,13 +5914,13 @@
         <v>186289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5935,13 @@
         <v>234311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -5905,13 +5950,13 @@
         <v>234275</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>470</v>
@@ -5920,13 +5965,13 @@
         <v>468585</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6039,13 @@
         <v>111498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -6009,13 +6054,13 @@
         <v>153850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -6024,13 +6069,13 @@
         <v>265348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6090,13 @@
         <v>258466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>214</v>
@@ -6060,13 +6105,13 @@
         <v>233433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>463</v>
@@ -6075,13 +6120,13 @@
         <v>491899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6194,13 @@
         <v>90141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -6164,13 +6209,13 @@
         <v>102832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -6179,13 +6224,13 @@
         <v>192973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6245,13 @@
         <v>121080</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -6215,13 +6260,13 @@
         <v>115755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
@@ -6230,13 +6275,13 @@
         <v>236835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6349,13 @@
         <v>76649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -6319,10 +6364,10 @@
         <v>90479</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>128</v>
@@ -6334,13 +6379,13 @@
         <v>167129</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6400,13 @@
         <v>186474</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>180</v>
@@ -6370,13 +6415,13 @@
         <v>182636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>362</v>
@@ -6385,13 +6430,13 @@
         <v>369109</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6504,13 @@
         <v>173918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>238</v>
@@ -6474,13 +6519,13 @@
         <v>252156</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>393</v>
@@ -6492,10 +6537,10 @@
         <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6555,13 @@
         <v>482640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>408</v>
@@ -6525,13 +6570,13 @@
         <v>439138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>833</v>
@@ -6543,10 +6588,10 @@
         <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,10 +6659,10 @@
         <v>279821</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>128</v>
@@ -6629,13 +6674,13 @@
         <v>374854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>617</v>
@@ -6644,13 +6689,13 @@
         <v>654675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6710,13 @@
         <v>498762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>405</v>
@@ -6680,13 +6725,13 @@
         <v>451313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>888</v>
@@ -6695,13 +6740,13 @@
         <v>950075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6814,13 @@
         <v>1062691</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>1316</v>
@@ -6784,13 +6829,13 @@
         <v>1373604</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="M28" s="7">
         <v>2327</v>
@@ -6799,10 +6844,10 @@
         <v>2436295</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>114</v>
@@ -6820,13 +6865,13 @@
         <v>2331659</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H29" s="7">
         <v>2022</v>
@@ -6835,13 +6880,13 @@
         <v>2170938</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="M29" s="7">
         <v>4242</v>
@@ -6850,13 +6895,13 @@
         <v>4502597</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC34CE19-630A-4D1F-9FAA-ED77A657F86E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8A2900-FDD1-4EF8-A08D-7AA04F9CEF4D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6953,7 +6998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7057,46 +7102,46 @@
         <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>16289</v>
+        <v>18206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>24018</v>
+        <v>24737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>40307</v>
+        <v>42942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,46 +7153,46 @@
         <v>309</v>
       </c>
       <c r="D5" s="7">
-        <v>244009</v>
+        <v>293237</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>488</v>
       </c>
       <c r="I5" s="7">
-        <v>247385</v>
+        <v>264898</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="M5" s="7">
         <v>797</v>
       </c>
       <c r="N5" s="7">
-        <v>491393</v>
+        <v>558135</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7204,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7174,7 +7219,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7189,7 +7234,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7212,46 +7257,46 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>58097</v>
+        <v>55849</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="H7" s="7">
         <v>145</v>
       </c>
       <c r="I7" s="7">
-        <v>110463</v>
+        <v>101314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
       </c>
       <c r="N7" s="7">
-        <v>168560</v>
+        <v>157163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,46 +7308,46 @@
         <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>461200</v>
+        <v>462541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
       </c>
       <c r="I8" s="7">
-        <v>444103</v>
+        <v>413655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="M8" s="7">
         <v>904</v>
       </c>
       <c r="N8" s="7">
-        <v>905304</v>
+        <v>876196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,7 +7359,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7329,7 +7374,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7344,7 +7389,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7367,46 +7412,46 @@
         <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>39330</v>
+        <v>37994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>50002</v>
+        <v>46262</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
       </c>
       <c r="N10" s="7">
-        <v>89332</v>
+        <v>84256</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,46 +7463,46 @@
         <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>282910</v>
+        <v>278056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
       </c>
       <c r="I11" s="7">
-        <v>323282</v>
+        <v>302866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="M11" s="7">
         <v>773</v>
       </c>
       <c r="N11" s="7">
-        <v>606192</v>
+        <v>580922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,7 +7514,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7484,7 +7529,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7499,7 +7544,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7522,46 +7567,46 @@
         <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>51556</v>
+        <v>48647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>67696</v>
+        <v>62782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>119253</v>
+        <v>111429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,46 +7618,46 @@
         <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>270684</v>
+        <v>263910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
       </c>
       <c r="I14" s="7">
-        <v>360860</v>
+        <v>412936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="M14" s="7">
         <v>742</v>
       </c>
       <c r="N14" s="7">
-        <v>631543</v>
+        <v>676845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,7 +7669,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7639,7 +7684,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7654,7 +7699,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7677,46 +7722,46 @@
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>21243</v>
+        <v>19291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
       </c>
       <c r="I16" s="7">
-        <v>27163</v>
+        <v>24348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
       </c>
       <c r="N16" s="7">
-        <v>48406</v>
+        <v>43639</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,46 +7773,46 @@
         <v>249</v>
       </c>
       <c r="D17" s="7">
-        <v>175505</v>
+        <v>159451</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
       </c>
       <c r="I17" s="7">
-        <v>232350</v>
+        <v>234431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
       </c>
       <c r="N17" s="7">
-        <v>407854</v>
+        <v>393882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7824,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7794,7 +7839,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7809,7 +7854,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7832,46 +7877,46 @@
         <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>48940</v>
+        <v>47693</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
       </c>
       <c r="I19" s="7">
-        <v>65197</v>
+        <v>60864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
       </c>
       <c r="N19" s="7">
-        <v>114137</v>
+        <v>108557</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,46 +7928,46 @@
         <v>300</v>
       </c>
       <c r="D20" s="7">
-        <v>228283</v>
+        <v>221943</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
       </c>
       <c r="I20" s="7">
-        <v>210425</v>
+        <v>196192</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
       </c>
       <c r="N20" s="7">
-        <v>438708</v>
+        <v>418135</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,7 +7979,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7949,7 +7994,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7964,7 +8009,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7987,46 +8032,46 @@
         <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>33699</v>
+        <v>33209</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>161740</v>
+        <v>251460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
       </c>
       <c r="N22" s="7">
-        <v>195439</v>
+        <v>284668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,46 +8083,46 @@
         <v>563</v>
       </c>
       <c r="D23" s="7">
-        <v>594055</v>
+        <v>591070</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
       </c>
       <c r="I23" s="7">
-        <v>642463</v>
+        <v>597805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
       </c>
       <c r="N23" s="7">
-        <v>1236518</v>
+        <v>1188876</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8134,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8104,7 +8149,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8119,7 +8164,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8142,46 +8187,46 @@
         <v>166</v>
       </c>
       <c r="D25" s="7">
-        <v>179248</v>
+        <v>152045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="H25" s="7">
         <v>324</v>
       </c>
       <c r="I25" s="7">
-        <v>267535</v>
+        <v>221525</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M25" s="7">
         <v>490</v>
       </c>
       <c r="N25" s="7">
-        <v>446783</v>
+        <v>373570</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,46 +8238,46 @@
         <v>596</v>
       </c>
       <c r="D26" s="7">
-        <v>680180</v>
+        <v>776675</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H26" s="7">
         <v>738</v>
       </c>
       <c r="I26" s="7">
-        <v>600899</v>
+        <v>496206</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>1334</v>
       </c>
       <c r="N26" s="7">
-        <v>1281079</v>
+        <v>1272882</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,7 +8289,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8259,7 +8304,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8274,7 +8319,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8297,46 +8342,46 @@
         <v>469</v>
       </c>
       <c r="D28" s="7">
-        <v>448402</v>
+        <v>412934</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="H28" s="7">
         <v>959</v>
       </c>
       <c r="I28" s="7">
-        <v>773814</v>
+        <v>793292</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>429</v>
       </c>
       <c r="M28" s="7">
         <v>1428</v>
       </c>
       <c r="N28" s="7">
-        <v>1222217</v>
+        <v>1206225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,46 +8393,46 @@
         <v>2907</v>
       </c>
       <c r="D29" s="7">
-        <v>2936826</v>
+        <v>3046883</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="H29" s="7">
         <v>4408</v>
       </c>
       <c r="I29" s="7">
-        <v>3061767</v>
+        <v>2918988</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>436</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="M29" s="7">
         <v>7315</v>
       </c>
       <c r="N29" s="7">
-        <v>5998592</v>
+        <v>5965872</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,7 +8444,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8414,7 +8459,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8429,7 +8474,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
